--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-creatinine-observation.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-creatinine-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T11:27:24+00:00</t>
+    <t>2024-12-18T10:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1512,7 +1512,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-creatinine-observation.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-creatinine-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:05:02+00:00</t>
+    <t>2025-12-17T07:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -676,7 +676,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -731,7 +731,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -862,7 +862,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1141,7 +1141,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1173,7 +1173,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1229,7 +1229,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1262,7 +1262,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1274,7 +1274,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1302,7 +1302,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1382,7 +1382,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1465,7 +1465,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1502,7 +1502,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1524,7 +1524,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1951,17 +1951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1970,28 +1970,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3562,7 +3562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>217</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>257</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>288</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>304</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>325</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>334</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>343</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>352</v>
       </c>
@@ -9246,12 +9246,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP60">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
